--- a/Nuevo Enfoque Datos/ensayosLaboratorio.xlsx
+++ b/Nuevo Enfoque Datos/ensayosLaboratorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D8FE5-4975-4B8B-88EA-4FB8AC6AA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3F316-4635-4409-BB61-DFA6959AA185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,11 +399,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,7 +710,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,13 +754,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -770,16 +772,16 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -790,13 +792,14 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -810,16 +813,16 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -827,13 +830,14 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -844,16 +848,16 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -861,13 +865,14 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -878,16 +883,16 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -895,13 +900,14 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -915,16 +921,16 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -932,13 +938,14 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -949,16 +956,16 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -966,13 +973,14 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -983,16 +991,16 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1003,13 +1011,14 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1020,16 +1029,16 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1037,13 +1046,14 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1054,16 +1064,16 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1074,13 +1084,14 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1088,16 +1099,16 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1111,16 +1122,16 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1128,13 +1139,14 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1142,13 +1154,14 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1159,16 +1172,16 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1176,13 +1189,14 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1190,13 +1204,14 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1207,16 +1222,16 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1227,13 +1242,14 @@
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1244,16 +1260,16 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1261,13 +1277,14 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1278,16 +1295,16 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>107</v>
       </c>
     </row>
